--- a/src/test/resources/sample.xlsx
+++ b/src/test/resources/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18260"/>
+    <workbookView windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CREATEDAT</t>
+  </si>
+  <si>
+    <t>UPDATEDAT</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>SUBTYPE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
   <si>
     <t>6ES2P57I0L6QHB8N</t>
   </si>
@@ -203,12 +227,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,7 +246,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,6 +256,127 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,22 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,118 +403,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,192 +419,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -588,52 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,7 +647,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,166 +693,195 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1108,14 +1151,15 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.3571428571429" customWidth="1"/>
     <col min="2" max="2" width="20.2142857142857" customWidth="1"/>
-    <col min="3" max="4" width="12.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="17.6428571428571" customWidth="1"/>
+    <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="18.7857142857143" customWidth="1"/>
     <col min="6" max="6" width="15.9285714285714" customWidth="1"/>
     <col min="7" max="7" width="11.6428571428571" customWidth="1"/>
@@ -1123,417 +1167,433 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>40589</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>39142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2">
         <v>8003453443</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>25778</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>36857</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G14" si="0">G2+1</f>
+        <f t="shared" ref="G3:G16" si="0">G2+1</f>
         <v>8003453444</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>40866</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>42688</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>8003453445</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
         <v>26480</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>30945</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>8003453446</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>29429</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>30346</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>8003453447</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
         <v>36299</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>44643</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>8003453448</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>41099</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>38797</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>8003453449</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3">
         <v>31159</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>33089</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>8003453450</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3">
         <v>28308</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>35776</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>8003453451</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3">
         <v>34051</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>28358</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>8003453452</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
         <v>36296</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>30587</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>8003453453</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3">
         <v>30598</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>43709</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>8003453454</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3">
         <v>31884</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>27695</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>8003453455</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3">
         <v>33278</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>34625</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2">
-        <f>G14+1</f>
+        <f t="shared" si="0"/>
         <v>8003453456</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3">
         <v>39049</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>31284</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
-        <f>G15+1</f>
+        <f t="shared" si="0"/>
         <v>8003453457</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample.xlsx
+++ b/src/test/resources/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18240"/>
+    <workbookView windowHeight="18260"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -229,11 +229,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -266,35 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -303,6 +274,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -311,93 +342,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,19 +419,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,67 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,91 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,21 +624,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +676,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -711,169 +711,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -886,6 +886,12 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1151,7 +1157,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -1211,7 +1217,7 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>8003453443</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1237,8 +1243,7 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G16" si="0">G2+1</f>
+      <c r="G3" s="6">
         <v>8003453444</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1264,8 +1269,7 @@
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
+      <c r="G4" s="6">
         <v>8003453445</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1291,8 +1295,7 @@
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
+      <c r="G5" s="6">
         <v>8003453446</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1318,8 +1321,7 @@
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
+      <c r="G6" s="6">
         <v>8003453447</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1345,8 +1347,7 @@
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
+      <c r="G7" s="6">
         <v>8003453448</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1372,8 +1373,7 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
+      <c r="G8" s="6">
         <v>8003453449</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1399,8 +1399,7 @@
       <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
+      <c r="G9" s="6">
         <v>8003453450</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1426,8 +1425,7 @@
       <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
+      <c r="G10" s="6">
         <v>8003453451</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1453,8 +1451,7 @@
       <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
+      <c r="G11" s="6">
         <v>8003453452</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1480,8 +1477,7 @@
       <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
+      <c r="G12" s="6">
         <v>8003453453</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1507,8 +1503,7 @@
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
+      <c r="G13" s="6">
         <v>8003453454</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1534,8 +1529,7 @@
       <c r="F14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
+      <c r="G14" s="6">
         <v>8003453455</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1561,8 +1555,7 @@
       <c r="F15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
+      <c r="G15" s="6">
         <v>8003453456</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1588,8 +1581,7 @@
       <c r="F16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
+      <c r="G16" s="6">
         <v>8003453457</v>
       </c>
       <c r="H16" s="2" t="s">
